--- a/medicine/Psychotrope/Rainbow_Coffee_House/Rainbow_Coffee_House.xlsx
+++ b/medicine/Psychotrope/Rainbow_Coffee_House/Rainbow_Coffee_House.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rainbow Coffee House était un célèbre coffee house situé au 15 Fleet Street, à Londres[1]. Il a ouvert ses portes en 1657 sous la direction de James Farr, devenant alors le second café de Londres[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rainbow Coffee House était un célèbre coffee house situé au 15 Fleet Street, à Londres. Il a ouvert ses portes en 1657 sous la direction de James Farr, devenant alors le second café de Londres.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rainbow a fourni un lieu de rencontre pour les francs-maçons et les huguenots réfugiés français, qui y ont établi un centre d'information[3]. Le Rainbow Coffee House a également été mis sur le devant de la scène par Titus Oates, qui a accusé Sir Philip Lloyd de nier l'existence d'un complot papiste là-bas, trouvant des témoins parmi les buveurs de café pour témoigner contre lui[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rainbow a fourni un lieu de rencontre pour les francs-maçons et les huguenots réfugiés français, qui y ont établi un centre d'information. Le Rainbow Coffee House a également été mis sur le devant de la scène par Titus Oates, qui a accusé Sir Philip Lloyd de nier l'existence d'un complot papiste là-bas, trouvant des témoins parmi les buveurs de café pour témoigner contre lui.
 En 1719, John Woodward a écrit une satire The Two Sosias: Or, the True Dr. Byfield at the Rainbow Coffee-House, to the Pretender in Jermyn-Street.
-David Hughson a écrit en 1807 que le Rainbow a été remplacé par le Nando's Coffee House dans le même bâtiment, plus tard au XVIIe siècle[5].
+David Hughson a écrit en 1807 que le Rainbow a été remplacé par le Nando's Coffee House dans le même bâtiment, plus tard au XVIIe siècle.
 </t>
         </is>
       </c>
@@ -544,20 +558,91 @@
           <t>Personnalités rattachées à l'établissement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De nombreux huguenots notables étaient associés au Rainbow Coffee House. Cependant, il y avait aussi d'autres notables allemands et anglais[6].
-Français exilés
-Paul Colomiès (1638–1692)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux huguenots notables étaient associés au Rainbow Coffee House. Cependant, il y avait aussi d'autres notables allemands et anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rainbow_Coffee_House</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rainbow_Coffee_House</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités rattachées à l'établissement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Français exilés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paul Colomiès (1638–1692)
 César de Missy (1703–1775)
 John Theophilus Desaguliers (1683 - 1744)
 Pierre Des Maizeaux (1673–1745)
 David Durand (1680 - 1763)
 Pierre-Antoine Motteux (1663 - 1718)
 Michel de La Roche (1710–1731)
-Voltaire (1694 - 1778)
-Autres
-Anthony Collins (1676 - 1729)
+Voltaire (1694 - 1778)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rainbow_Coffee_House</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rainbow_Coffee_House</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités rattachées à l'établissement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anthony Collins (1676 - 1729)
 David Hume (1711 - 1776)
 Richard Mead (1673 - 1754)
 Daniel Maichel (1693–1752)
